--- a/features.xlsx
+++ b/features.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZhangYuance\GithubProject\CZ4041\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F328F86-FE8E-43EE-8FB6-A6E0E9C41A41}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C601F00-84F7-4EFA-B550-CF1D628649B8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" xr2:uid="{174895B6-FBF2-40DA-B5F0-B3815B23095A}"/>
   </bookViews>
@@ -160,7 +160,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +171,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -196,18 +202,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DCC2E3E-51EE-4A40-999D-CD7B9234839A}">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -638,7 +645,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B15" t="s">
@@ -689,7 +696,7 @@
       <c r="A23" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -697,43 +704,43 @@
       <c r="A24" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="4"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="4"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -741,7 +748,7 @@
       <c r="A34" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -749,7 +756,7 @@
       <c r="A35" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -757,7 +764,7 @@
       <c r="A36" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -765,7 +772,7 @@
       <c r="A37" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -773,7 +780,7 @@
       <c r="A38" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -781,7 +788,7 @@
       <c r="A39" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -789,7 +796,7 @@
       <c r="A40" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -797,7 +804,7 @@
       <c r="A41" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -805,7 +812,7 @@
       <c r="A42" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -813,7 +820,7 @@
       <c r="A43" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -821,7 +828,7 @@
       <c r="A44" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -829,7 +836,7 @@
       <c r="A45" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -837,7 +844,7 @@
       <c r="A46" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -845,7 +852,7 @@
       <c r="A47" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B47" s="3"/>
+      <c r="B47" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
